--- a/REGULAR/OJT/NEW DONE/SALONGA LUCY.xlsx
+++ b/REGULAR/OJT/NEW DONE/SALONGA LUCY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFAA021-C472-41F7-99E6-6B134DCFB9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697480E-5E55-4852-BFFD-2BEB78EEBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1895,9 +1898,9 @@
   <dimension ref="A2:K435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" activePane="bottomLeft"/>
+      <pane ySplit="1800" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="N4" sqref="N4"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2058,7 +2061,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.44300000000004</v>
+        <v>100.19300000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2068,7 +2071,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.75</v>
+        <v>99.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10692,7 +10695,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B395" s="20" t="s">
         <v>80</v>
@@ -10716,7 +10719,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -10736,7 +10739,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>79</v>
@@ -10762,16 +10765,18 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
@@ -10780,16 +10785,18 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
@@ -10798,25 +10805,31 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
+        <v>45107</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="39"/>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10834,7 +10847,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10852,7 +10865,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10870,7 +10883,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10888,7 +10901,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10906,7 +10919,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11553,7 +11566,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!I9,Sheet1!E9)</f>
-        <v>192.19300000000004</v>
+        <v>199.69300000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
